--- a/Data/StatisticsDiversity.xlsx
+++ b/Data/StatisticsDiversity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\TopTrons\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C5995A-1BBA-471B-8FA1-8A7383A13A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B67760-06A1-4B86-828A-FFAC9D508D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Parameter</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,161 +98,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,226 +448,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" activeCellId="1" sqref="F6 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="E2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="E3" s="7">
-        <v>11.103</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>24</v>
       </c>
-      <c r="E4" s="10">
-        <v>8.8040000000000003</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4">
+        <v>7.468</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>1.744</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="E5">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="E6" s="7">
-        <v>9.2370000000000001</v>
-      </c>
-      <c r="F6" s="8">
-        <v>3.0400000000000002E-4</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="E6">
+        <v>7.625</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>24</v>
       </c>
-      <c r="E7" s="10">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="E7">
+        <v>0.745</v>
+      </c>
+      <c r="F7">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="E8">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
-        <v>6.343</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="E9">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="F9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" s="10">
-        <v>10.319000000000001</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10">
+        <v>11.03</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/StatisticsDiversity.xlsx
+++ b/Data/StatisticsDiversity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\TopTrons\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B67760-06A1-4B86-828A-FFAC9D508D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6BE9FB-FC4D-40D1-98C1-D71C4963A423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +452,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="F6 F10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,10 +491,10 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>0.46600000000000003</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="F2">
-        <v>0.64300000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -510,7 +511,7 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>7.8490000000000002</v>
+        <v>8.9670000000000005</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -530,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>7.468</v>
+        <v>8.4920000000000009</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -550,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1.3620000000000001</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="F5">
-        <v>0.31</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -570,7 +571,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>7.625</v>
+        <v>7.7889999999999997</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -590,10 +591,10 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0.745</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="F7">
-        <v>0.61899999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -610,10 +611,10 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0.52200000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="F8">
-        <v>0.61199999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -630,10 +631,10 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="F9">
-        <v>2.1000000000000001E-2</v>
+        <v>5.5839999999999996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -650,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>11.03</v>
+        <v>12.499000000000001</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>

--- a/Data/StatisticsDiversity.xlsx
+++ b/Data/StatisticsDiversity.xlsx
@@ -1,71 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\TopTrons\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6BE9FB-FC4D-40D1-98C1-D71C4963A423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>DFn</t>
-  </si>
-  <si>
-    <t>DFd</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Shannon</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Temperature:Time</t>
-  </si>
-  <si>
-    <t>Richness</t>
-  </si>
-  <si>
-    <t>Evenness</t>
-  </si>
-  <si>
-    <t>&lt; 0.001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,29 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,41 +350,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Effect</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DFn</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DFd</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shannon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
       </c>
       <c r="C2">
         <v>2</v>
@@ -491,18 +407,22 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>0.58899999999999997</v>
+        <v>0.097</v>
       </c>
       <c r="F2">
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Shannon</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
       </c>
       <c r="C3">
         <v>3</v>
@@ -511,18 +431,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>8.9670000000000005</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>9.497</v>
+      </c>
+      <c r="F3">
+        <v>0.000256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shannon</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Temperature:Time</t>
+        </is>
       </c>
       <c r="C4">
         <v>6</v>
@@ -531,18 +455,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>8.4920000000000009</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>7.572</v>
+      </c>
+      <c r="F4">
+        <v>0.000123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Richness</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
       </c>
       <c r="C5">
         <v>2</v>
@@ -551,18 +479,22 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1.4319999999999999</v>
+        <v>1.118</v>
       </c>
       <c r="F5">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Richness</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
       </c>
       <c r="C6">
         <v>3</v>
@@ -571,18 +503,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>7.7889999999999997</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>7.576</v>
+      </c>
+      <c r="F6">
+        <v>0.0009840000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Richness</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Temperature:Time</t>
+        </is>
       </c>
       <c r="C7">
         <v>6</v>
@@ -591,18 +527,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0.40799999999999997</v>
+        <v>0.616</v>
       </c>
       <c r="F7">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Evenness</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
       </c>
       <c r="C8">
         <v>2</v>
@@ -611,18 +551,22 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0.33100000000000002</v>
+        <v>0.056</v>
       </c>
       <c r="F8">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Evenness</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
       </c>
       <c r="C9">
         <v>3</v>
@@ -631,18 +575,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>5.5839999999999996</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+        <v>5.635</v>
+      </c>
+      <c r="F9">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Evenness</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Temperature:Time</t>
+        </is>
       </c>
       <c r="C10">
         <v>6</v>
@@ -651,10 +599,10 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>12.499000000000001</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>9.818</v>
+      </c>
+      <c r="F10">
+        <v>1.69e-05</v>
       </c>
     </row>
   </sheetData>
